--- a/team_schedule.xlsx
+++ b/team_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Friedman 102</t>
+          <t>Friedman 108</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -461,844 +461,537 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Salomon 003</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Salomon 004</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Salomon 202</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Salomon 203</t>
+          <t>Friedman 208</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test34</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Friend Graph</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LeBeet James</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>test8</t>
+          <t>Stacked &amp; Loaded</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>test9</t>
+          <t>WriteUp</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>test24</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>test3</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>sigma bois</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test18</t>
+          <t>Wolf Pack</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>test7</t>
+          <t>The Reel Talkers</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>test12</t>
+          <t>bAInoculars</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>test29</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>test14</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>12:20</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>test27</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>12:24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SideQuest</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Eatery</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>InTune</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>test64</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>test39</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>test46</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Yay</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>12:31</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>guidEd</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>test33</t>
+          <t>Script Squad</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>test31</t>
+          <t>BiteQuest</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>test63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>test53</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>test65</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>test23</t>
-        </is>
-      </c>
+          <t>CareerBuddy</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>Henree Gaming</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>test40</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>test46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>test20</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>test58</t>
+          <t>Sick ward</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Northeastern Undergraduate Engineers</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YourCade</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>test28</t>
+          <t>Just Us Two</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>test30</t>
+          <t>Plabypus</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>test10</t>
+          <t>Mr. Lard</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>test62</t>
+          <t>Kaizen</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>test61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>test42</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>test25</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>test52</t>
+          <t>Veritai</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>test21</t>
+          <t>Mochampions LLC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>test9</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>test4</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>test57</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>test31</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>test13</t>
-        </is>
-      </c>
+          <t>The Zeroth Sex</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jubilant Game Devs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>13:10</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>test14</t>
-        </is>
-      </c>
+          <t>12:59</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jazz Frogs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>test24</t>
+          <t>ScrolleX</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>test59</t>
+          <t>Arcadeify</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>test49</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>test37</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>test27</t>
+          <t>El Paca</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>test29</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>Algorhythm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LeTeam</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>test5</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>test58</t>
-        </is>
-      </c>
+          <t>See My Project</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>test55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>test16</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>test56</t>
+          <t>D&amp;R</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>test57</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>test26</t>
-        </is>
-      </c>
+          <t>Kairos</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>test6</t>
+          <t>signify</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>test35</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>test32</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>test2</t>
+          <t>Codex</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>The CompJosters</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>test55</t>
+          <t>FindYourGig</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>test17</t>
+          <t>Best Friends Forever</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>test45</t>
+          <t>Newsference</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>test56</t>
+          <t>Learn2Play</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>test44</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>test36</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>test50</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>test42</t>
+          <t>C@B_GPT</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>test47</t>
+          <t>foodie</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>test10</t>
+          <t>TailwindTitans</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>test13</t>
+          <t>Pillai-Fan-Club</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>test54</t>
+          <t>Paw and Order</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>test37</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>test23</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>test21</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>test11</t>
+          <t>MetaPhysical</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>test48</t>
-        </is>
-      </c>
+          <t>13:34</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>test22</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>RelieverRX (PRHI)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>JobQuest</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>test60</t>
+          <t>MediScan (PRHI)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>test51</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>test25</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>test8</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>test17</t>
+          <t>Zoomies (PRHI)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>13:41</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>test26</t>
+          <t>B-NATs (PRHI)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>test41</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>PillPall (PRHI)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ReVive (PRHI)</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>test53</t>
+          <t>DrugAwaRE (PRHI)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>test63</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>test20</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>test40</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>test49</t>
+          <t>MaxWell (PRHI)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>14:20</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>test5</t>
-        </is>
-      </c>
+          <t>13:48</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>test11</t>
+          <t>Matcha Loops (PRHI)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>test28</t>
+          <t>Jamone (PRHI)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>test65</t>
+          <t>bridge (PRHI)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>test38</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>test19</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>test59</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>test18</t>
+          <t>Skeleton Key (PRHI)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DrugAwaRE (PRHI)</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>test32</t>
+          <t>RCM Games</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>test39</t>
+          <t>radio rebel (PRHI)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>test48</t>
+          <t>Diabetes 360 (PRHI)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>test41</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>test62</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>test12</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>test1</t>
+          <t>HealthyTales (PRHI)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>14:40</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>test15</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>HealQuest (PRHI)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Real Shawties (PRHI)</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>test35</t>
+          <t>Hang and Mia (PRHI)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>test61</t>
+          <t>Kyron Medical (PRHI)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>test54</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>test64</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>test22</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>test7</t>
+          <t>Othello (PRHI)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>test43</t>
+          <t>First Aid Frontier (PRHI)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>test51</t>
+          <t>erjj (er-juh) (PRHI)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>test3</t>
+          <t>IM GOOD AT CS IM GOOD AT CS IM GOOD AT CS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>test47</t>
+          <t>Serena &amp; Karina Code</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>test45</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>test34</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>test33</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>test38</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>test6</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>test30</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>test52</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>test60</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>test19</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>15:10</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>test36</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>test44</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>test16</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>test43</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>test15</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>test4</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+          <t>MemoReplay (PRHI)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
